--- a/config_Release/fish_match_server.xlsx
+++ b/config_Release/fish_match_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -9707,10 +9707,10 @@
         <v>10000</v>
       </c>
       <c r="B2" s="25">
-        <v>1593608100</v>
+        <v>1599049800</v>
       </c>
       <c r="C2" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
@@ -9733,10 +9733,10 @@
         <v>10001</v>
       </c>
       <c r="B3" s="25">
-        <v>1594212900</v>
+        <v>1599222600</v>
       </c>
       <c r="C3" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
@@ -9759,10 +9759,10 @@
         <v>10002</v>
       </c>
       <c r="B4" s="25">
-        <v>1594817700</v>
+        <v>1599481800</v>
       </c>
       <c r="C4" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
@@ -9785,10 +9785,10 @@
         <v>10003</v>
       </c>
       <c r="B5" s="25">
-        <v>1595422500</v>
+        <v>1599654600</v>
       </c>
       <c r="C5" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
@@ -9811,10 +9811,10 @@
         <v>10004</v>
       </c>
       <c r="B6" s="27">
-        <v>1596027300</v>
+        <v>1599827400</v>
       </c>
       <c r="C6" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
@@ -9837,10 +9837,10 @@
         <v>10005</v>
       </c>
       <c r="B7" s="27">
-        <v>1596632100</v>
+        <v>1600086600</v>
       </c>
       <c r="C7" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -9863,10 +9863,10 @@
         <v>10006</v>
       </c>
       <c r="B8" s="27">
-        <v>1597236900</v>
+        <v>1600259400</v>
       </c>
       <c r="C8" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
@@ -9889,10 +9889,10 @@
         <v>10007</v>
       </c>
       <c r="B9" s="27">
-        <v>1597841700</v>
+        <v>1600432200</v>
       </c>
       <c r="C9" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
@@ -9915,10 +9915,10 @@
         <v>10008</v>
       </c>
       <c r="B10" s="27">
-        <v>1598446500</v>
+        <v>1600691400</v>
       </c>
       <c r="C10" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
@@ -9941,10 +9941,10 @@
         <v>10009</v>
       </c>
       <c r="B11" s="27">
-        <v>1599051300</v>
+        <v>1600864200</v>
       </c>
       <c r="C11" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
@@ -9967,10 +9967,10 @@
         <v>10010</v>
       </c>
       <c r="B12">
-        <v>1599656100</v>
+        <v>1601037000</v>
       </c>
       <c r="C12" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -9993,10 +9993,10 @@
         <v>10011</v>
       </c>
       <c r="B13">
-        <v>1600260900</v>
+        <v>1601296200</v>
       </c>
       <c r="C13" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
@@ -10019,10 +10019,10 @@
         <v>10012</v>
       </c>
       <c r="B14">
-        <v>1600865700</v>
+        <v>1601469000</v>
       </c>
       <c r="C14" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
@@ -10045,10 +10045,10 @@
         <v>10013</v>
       </c>
       <c r="B15">
-        <v>1601470500</v>
+        <v>1601641800</v>
       </c>
       <c r="C15" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
@@ -10071,10 +10071,10 @@
         <v>10014</v>
       </c>
       <c r="B16">
-        <v>1602075300</v>
+        <v>1601901000</v>
       </c>
       <c r="C16" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
@@ -10097,10 +10097,10 @@
         <v>10015</v>
       </c>
       <c r="B17">
-        <v>1602680100</v>
+        <v>1602073800</v>
       </c>
       <c r="C17" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
@@ -10123,10 +10123,10 @@
         <v>10016</v>
       </c>
       <c r="B18">
-        <v>1603284900</v>
+        <v>1602246600</v>
       </c>
       <c r="C18" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D18" s="8">
         <v>1</v>
@@ -10149,10 +10149,10 @@
         <v>10017</v>
       </c>
       <c r="B19">
-        <v>1603889700</v>
+        <v>1602505800</v>
       </c>
       <c r="C19" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
@@ -10175,10 +10175,10 @@
         <v>10018</v>
       </c>
       <c r="B20">
-        <v>1604494500</v>
+        <v>1602678600</v>
       </c>
       <c r="C20" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
@@ -10201,10 +10201,10 @@
         <v>10019</v>
       </c>
       <c r="B21">
-        <v>1605099300</v>
+        <v>1602851400</v>
       </c>
       <c r="C21" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
@@ -10227,10 +10227,10 @@
         <v>10020</v>
       </c>
       <c r="B22">
-        <v>1605704100</v>
+        <v>1603110600</v>
       </c>
       <c r="C22" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
@@ -10253,10 +10253,10 @@
         <v>10021</v>
       </c>
       <c r="B23">
-        <v>1606308900</v>
+        <v>1603283400</v>
       </c>
       <c r="C23" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
@@ -10279,10 +10279,10 @@
         <v>10022</v>
       </c>
       <c r="B24">
-        <v>1606913700</v>
+        <v>1603456200</v>
       </c>
       <c r="C24" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
@@ -10305,10 +10305,10 @@
         <v>10023</v>
       </c>
       <c r="B25">
-        <v>1607518500</v>
+        <v>1603715400</v>
       </c>
       <c r="C25" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
@@ -10331,10 +10331,10 @@
         <v>10024</v>
       </c>
       <c r="B26">
-        <v>1608123300</v>
+        <v>1603888200</v>
       </c>
       <c r="C26" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D26" s="8">
         <v>1</v>
@@ -10357,10 +10357,10 @@
         <v>10025</v>
       </c>
       <c r="B27">
-        <v>1608728100</v>
+        <v>1604061000</v>
       </c>
       <c r="C27" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -10383,10 +10383,10 @@
         <v>10026</v>
       </c>
       <c r="B28">
-        <v>1609332900</v>
+        <v>1604320200</v>
       </c>
       <c r="C28" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -10409,10 +10409,10 @@
         <v>10027</v>
       </c>
       <c r="B29">
-        <v>1609937700</v>
+        <v>1604493000</v>
       </c>
       <c r="C29" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -10435,10 +10435,10 @@
         <v>10028</v>
       </c>
       <c r="B30">
-        <v>1610542500</v>
+        <v>1604665800</v>
       </c>
       <c r="C30" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D30" s="8">
         <v>1</v>
@@ -10461,10 +10461,10 @@
         <v>10029</v>
       </c>
       <c r="B31">
-        <v>1611147300</v>
+        <v>1604925000</v>
       </c>
       <c r="C31" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D31" s="8">
         <v>1</v>
@@ -10487,10 +10487,10 @@
         <v>10030</v>
       </c>
       <c r="B32">
-        <v>1611752100</v>
+        <v>1605097800</v>
       </c>
       <c r="C32" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
@@ -10513,10 +10513,10 @@
         <v>10031</v>
       </c>
       <c r="B33">
-        <v>1612356900</v>
+        <v>1605270600</v>
       </c>
       <c r="C33" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D33" s="8">
         <v>1</v>
@@ -10539,10 +10539,10 @@
         <v>10032</v>
       </c>
       <c r="B34">
-        <v>1612961700</v>
+        <v>1605529800</v>
       </c>
       <c r="C34" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D34" s="8">
         <v>1</v>
@@ -10565,10 +10565,10 @@
         <v>10033</v>
       </c>
       <c r="B35">
-        <v>1613566500</v>
+        <v>1605702600</v>
       </c>
       <c r="C35" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D35" s="8">
         <v>1</v>
@@ -10591,10 +10591,10 @@
         <v>10034</v>
       </c>
       <c r="B36">
-        <v>1614171300</v>
+        <v>1605875400</v>
       </c>
       <c r="C36" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D36" s="8">
         <v>1</v>
@@ -10617,10 +10617,10 @@
         <v>10035</v>
       </c>
       <c r="B37">
-        <v>1614776100</v>
+        <v>1606134600</v>
       </c>
       <c r="C37" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D37" s="8">
         <v>1</v>
@@ -10643,10 +10643,10 @@
         <v>10036</v>
       </c>
       <c r="B38">
-        <v>1615380900</v>
+        <v>1606307400</v>
       </c>
       <c r="C38" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D38" s="8">
         <v>1</v>
@@ -10669,10 +10669,10 @@
         <v>10037</v>
       </c>
       <c r="B39">
-        <v>1615985700</v>
+        <v>1606480200</v>
       </c>
       <c r="C39" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D39" s="8">
         <v>1</v>
@@ -10695,10 +10695,10 @@
         <v>10038</v>
       </c>
       <c r="B40">
-        <v>1616590500</v>
+        <v>1606739400</v>
       </c>
       <c r="C40" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D40" s="8">
         <v>1</v>
@@ -10721,10 +10721,10 @@
         <v>10039</v>
       </c>
       <c r="B41">
-        <v>1617195300</v>
+        <v>1606912200</v>
       </c>
       <c r="C41" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D41" s="8">
         <v>1</v>
@@ -10747,10 +10747,10 @@
         <v>10040</v>
       </c>
       <c r="B42">
-        <v>1617800100</v>
+        <v>1607085000</v>
       </c>
       <c r="C42" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D42" s="8">
         <v>1</v>
@@ -10773,10 +10773,10 @@
         <v>10041</v>
       </c>
       <c r="B43">
-        <v>1618404900</v>
+        <v>1607344200</v>
       </c>
       <c r="C43" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D43" s="8">
         <v>1</v>
@@ -10799,10 +10799,10 @@
         <v>10042</v>
       </c>
       <c r="B44">
-        <v>1619009700</v>
+        <v>1607517000</v>
       </c>
       <c r="C44" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D44" s="8">
         <v>1</v>
@@ -10825,10 +10825,10 @@
         <v>10043</v>
       </c>
       <c r="B45">
-        <v>1619614500</v>
+        <v>1607689800</v>
       </c>
       <c r="C45" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D45" s="8">
         <v>1</v>
@@ -10851,10 +10851,10 @@
         <v>10044</v>
       </c>
       <c r="B46">
-        <v>1620219300</v>
+        <v>1607949000</v>
       </c>
       <c r="C46" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D46" s="8">
         <v>1</v>
@@ -10877,10 +10877,10 @@
         <v>10045</v>
       </c>
       <c r="B47">
-        <v>1620824100</v>
+        <v>1608121800</v>
       </c>
       <c r="C47" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D47" s="8">
         <v>1</v>
@@ -10903,10 +10903,10 @@
         <v>10046</v>
       </c>
       <c r="B48">
-        <v>1621428900</v>
+        <v>1608294600</v>
       </c>
       <c r="C48" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D48" s="8">
         <v>1</v>
@@ -10929,10 +10929,10 @@
         <v>10047</v>
       </c>
       <c r="B49">
-        <v>1622033700</v>
+        <v>1608553800</v>
       </c>
       <c r="C49" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D49" s="8">
         <v>1</v>
@@ -10955,10 +10955,10 @@
         <v>10048</v>
       </c>
       <c r="B50">
-        <v>1622638500</v>
+        <v>1608726600</v>
       </c>
       <c r="C50" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D50" s="8">
         <v>1</v>
@@ -10981,10 +10981,10 @@
         <v>10049</v>
       </c>
       <c r="B51">
-        <v>1623243300</v>
+        <v>1608899400</v>
       </c>
       <c r="C51" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D51" s="8">
         <v>1</v>
@@ -11007,10 +11007,10 @@
         <v>10050</v>
       </c>
       <c r="B52" s="29">
-        <v>1623848100</v>
+        <v>1609158600</v>
       </c>
       <c r="C52" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D52" s="8">
         <v>1</v>
@@ -11033,10 +11033,10 @@
         <v>10051</v>
       </c>
       <c r="B53" s="29">
-        <v>1624452900</v>
+        <v>1609331400</v>
       </c>
       <c r="C53" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D53" s="8">
         <v>1</v>
@@ -11059,10 +11059,10 @@
         <v>10052</v>
       </c>
       <c r="B54" s="29">
-        <v>1625057700</v>
+        <v>1609504200</v>
       </c>
       <c r="C54" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D54" s="8">
         <v>1</v>
@@ -11085,10 +11085,10 @@
         <v>10053</v>
       </c>
       <c r="B55" s="29">
-        <v>1625662500</v>
+        <v>1609763400</v>
       </c>
       <c r="C55" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D55" s="8">
         <v>1</v>
@@ -11111,10 +11111,10 @@
         <v>10054</v>
       </c>
       <c r="B56" s="29">
-        <v>1626267300</v>
+        <v>1609936200</v>
       </c>
       <c r="C56" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D56" s="8">
         <v>1</v>
@@ -11137,10 +11137,10 @@
         <v>10055</v>
       </c>
       <c r="B57" s="29">
-        <v>1626872100</v>
+        <v>1610109000</v>
       </c>
       <c r="C57" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D57" s="8">
         <v>1</v>
@@ -11163,10 +11163,10 @@
         <v>10056</v>
       </c>
       <c r="B58" s="29">
-        <v>1627476900</v>
+        <v>1610368200</v>
       </c>
       <c r="C58" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D58" s="8">
         <v>1</v>
@@ -11189,10 +11189,10 @@
         <v>10057</v>
       </c>
       <c r="B59" s="29">
-        <v>1628081700</v>
+        <v>1610541000</v>
       </c>
       <c r="C59" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D59" s="8">
         <v>1</v>
@@ -11215,10 +11215,10 @@
         <v>10058</v>
       </c>
       <c r="B60" s="29">
-        <v>1628686500</v>
+        <v>1610713800</v>
       </c>
       <c r="C60" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D60" s="8">
         <v>1</v>
@@ -11241,10 +11241,10 @@
         <v>10059</v>
       </c>
       <c r="B61" s="29">
-        <v>1629291300</v>
+        <v>1610973000</v>
       </c>
       <c r="C61" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D61" s="8">
         <v>1</v>
@@ -11267,10 +11267,10 @@
         <v>10060</v>
       </c>
       <c r="B62" s="29">
-        <v>1629896100</v>
+        <v>1611145800</v>
       </c>
       <c r="C62" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D62" s="8">
         <v>1</v>
@@ -11293,10 +11293,10 @@
         <v>10061</v>
       </c>
       <c r="B63" s="29">
-        <v>1630500900</v>
+        <v>1611318600</v>
       </c>
       <c r="C63" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D63" s="8">
         <v>1</v>
@@ -11319,10 +11319,10 @@
         <v>10062</v>
       </c>
       <c r="B64" s="29">
-        <v>1631105700</v>
+        <v>1611577800</v>
       </c>
       <c r="C64" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D64" s="8">
         <v>1</v>
@@ -11345,10 +11345,10 @@
         <v>10063</v>
       </c>
       <c r="B65" s="29">
-        <v>1631710500</v>
+        <v>1611750600</v>
       </c>
       <c r="C65" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D65" s="8">
         <v>1</v>
@@ -11371,10 +11371,10 @@
         <v>10064</v>
       </c>
       <c r="B66" s="29">
-        <v>1632315300</v>
+        <v>1611923400</v>
       </c>
       <c r="C66" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D66" s="8">
         <v>1</v>
@@ -11397,10 +11397,10 @@
         <v>10065</v>
       </c>
       <c r="B67" s="29">
-        <v>1632920100</v>
+        <v>1612182600</v>
       </c>
       <c r="C67" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D67" s="8">
         <v>1</v>
@@ -11423,10 +11423,10 @@
         <v>10066</v>
       </c>
       <c r="B68" s="29">
-        <v>1633524900</v>
+        <v>1612355400</v>
       </c>
       <c r="C68" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D68" s="8">
         <v>1</v>
@@ -11449,10 +11449,10 @@
         <v>10067</v>
       </c>
       <c r="B69" s="29">
-        <v>1634129700</v>
+        <v>1612528200</v>
       </c>
       <c r="C69" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D69" s="8">
         <v>1</v>
@@ -11475,10 +11475,10 @@
         <v>10068</v>
       </c>
       <c r="B70" s="29">
-        <v>1634734500</v>
+        <v>1612787400</v>
       </c>
       <c r="C70" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D70" s="8">
         <v>1</v>
@@ -11501,10 +11501,10 @@
         <v>10069</v>
       </c>
       <c r="B71" s="29">
-        <v>1635339300</v>
+        <v>1612960200</v>
       </c>
       <c r="C71" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D71" s="8">
         <v>1</v>
@@ -11527,10 +11527,10 @@
         <v>10070</v>
       </c>
       <c r="B72" s="29">
-        <v>1635944100</v>
+        <v>1613133000</v>
       </c>
       <c r="C72" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D72" s="8">
         <v>1</v>
@@ -11553,10 +11553,10 @@
         <v>10071</v>
       </c>
       <c r="B73" s="29">
-        <v>1636548900</v>
+        <v>1613392200</v>
       </c>
       <c r="C73" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D73" s="8">
         <v>1</v>
@@ -11579,10 +11579,10 @@
         <v>10072</v>
       </c>
       <c r="B74" s="29">
-        <v>1637153700</v>
+        <v>1613565000</v>
       </c>
       <c r="C74" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D74" s="8">
         <v>1</v>
@@ -11605,10 +11605,10 @@
         <v>10073</v>
       </c>
       <c r="B75" s="29">
-        <v>1637758500</v>
+        <v>1613737800</v>
       </c>
       <c r="C75" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D75" s="8">
         <v>1</v>
@@ -11631,10 +11631,10 @@
         <v>10074</v>
       </c>
       <c r="B76" s="29">
-        <v>1638363300</v>
+        <v>1613997000</v>
       </c>
       <c r="C76" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D76" s="8">
         <v>1</v>
@@ -11657,10 +11657,10 @@
         <v>10075</v>
       </c>
       <c r="B77" s="29">
-        <v>1638968100</v>
+        <v>1614169800</v>
       </c>
       <c r="C77" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D77" s="8">
         <v>1</v>
@@ -11683,10 +11683,10 @@
         <v>10076</v>
       </c>
       <c r="B78" s="29">
-        <v>1639572900</v>
+        <v>1614342600</v>
       </c>
       <c r="C78" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D78" s="8">
         <v>1</v>
@@ -11709,10 +11709,10 @@
         <v>10077</v>
       </c>
       <c r="B79" s="25">
-        <v>1640177700</v>
+        <v>1614601800</v>
       </c>
       <c r="C79" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D79" s="8">
         <v>1</v>
@@ -11735,10 +11735,10 @@
         <v>10078</v>
       </c>
       <c r="B80" s="25">
-        <v>1640782500</v>
+        <v>1614774600</v>
       </c>
       <c r="C80" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D80" s="8">
         <v>1</v>
@@ -11761,10 +11761,10 @@
         <v>10079</v>
       </c>
       <c r="B81" s="25">
-        <v>1641387300</v>
+        <v>1614947400</v>
       </c>
       <c r="C81" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D81" s="8">
         <v>1</v>
@@ -11787,10 +11787,10 @@
         <v>10080</v>
       </c>
       <c r="B82" s="25">
-        <v>1641992100</v>
+        <v>1615206600</v>
       </c>
       <c r="C82" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D82" s="8">
         <v>1</v>
@@ -11813,10 +11813,10 @@
         <v>10081</v>
       </c>
       <c r="B83" s="27">
-        <v>1642596900</v>
+        <v>1615379400</v>
       </c>
       <c r="C83" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D83" s="8">
         <v>1</v>
@@ -11839,10 +11839,10 @@
         <v>10082</v>
       </c>
       <c r="B84" s="27">
-        <v>1643201700</v>
+        <v>1615552200</v>
       </c>
       <c r="C84" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D84" s="8">
         <v>1</v>
@@ -11865,10 +11865,10 @@
         <v>10083</v>
       </c>
       <c r="B85" s="27">
-        <v>1643806500</v>
+        <v>1615811400</v>
       </c>
       <c r="C85" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D85" s="8">
         <v>1</v>
@@ -11891,10 +11891,10 @@
         <v>10084</v>
       </c>
       <c r="B86" s="27">
-        <v>1644411300</v>
+        <v>1615984200</v>
       </c>
       <c r="C86" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D86" s="8">
         <v>1</v>
@@ -11917,10 +11917,10 @@
         <v>10085</v>
       </c>
       <c r="B87" s="27">
-        <v>1645016100</v>
+        <v>1616157000</v>
       </c>
       <c r="C87" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D87" s="8">
         <v>1</v>
@@ -11943,10 +11943,10 @@
         <v>10086</v>
       </c>
       <c r="B88" s="27">
-        <v>1645620900</v>
+        <v>1616416200</v>
       </c>
       <c r="C88" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D88" s="8">
         <v>1</v>
@@ -11969,10 +11969,10 @@
         <v>10087</v>
       </c>
       <c r="B89">
-        <v>1646225700</v>
+        <v>1616589000</v>
       </c>
       <c r="C89" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D89" s="8">
         <v>1</v>
@@ -11995,10 +11995,10 @@
         <v>10088</v>
       </c>
       <c r="B90">
-        <v>1646830500</v>
+        <v>1616761800</v>
       </c>
       <c r="C90" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D90" s="8">
         <v>1</v>
@@ -12021,10 +12021,10 @@
         <v>10089</v>
       </c>
       <c r="B91">
-        <v>1647435300</v>
+        <v>1617021000</v>
       </c>
       <c r="C91" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D91" s="8">
         <v>1</v>
@@ -12047,10 +12047,10 @@
         <v>10090</v>
       </c>
       <c r="B92">
-        <v>1648040100</v>
+        <v>1617193800</v>
       </c>
       <c r="C92" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D92" s="8">
         <v>1</v>
@@ -12073,10 +12073,10 @@
         <v>10091</v>
       </c>
       <c r="B93">
-        <v>1648644900</v>
+        <v>1617366600</v>
       </c>
       <c r="C93" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D93" s="8">
         <v>1</v>
@@ -12099,10 +12099,10 @@
         <v>10092</v>
       </c>
       <c r="B94">
-        <v>1649249700</v>
+        <v>1617625800</v>
       </c>
       <c r="C94" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D94" s="8">
         <v>1</v>
@@ -12125,10 +12125,10 @@
         <v>10093</v>
       </c>
       <c r="B95">
-        <v>1649854500</v>
+        <v>1617798600</v>
       </c>
       <c r="C95" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D95" s="8">
         <v>1</v>
@@ -12151,10 +12151,10 @@
         <v>10094</v>
       </c>
       <c r="B96">
-        <v>1650459300</v>
+        <v>1617971400</v>
       </c>
       <c r="C96" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D96" s="8">
         <v>1</v>
@@ -12177,10 +12177,10 @@
         <v>10095</v>
       </c>
       <c r="B97">
-        <v>1651064100</v>
+        <v>1618230600</v>
       </c>
       <c r="C97" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D97" s="8">
         <v>1</v>
@@ -12203,10 +12203,10 @@
         <v>10096</v>
       </c>
       <c r="B98">
-        <v>1651668900</v>
+        <v>1618403400</v>
       </c>
       <c r="C98" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D98" s="8">
         <v>1</v>
@@ -12229,10 +12229,10 @@
         <v>10097</v>
       </c>
       <c r="B99">
-        <v>1652273700</v>
+        <v>1618576200</v>
       </c>
       <c r="C99" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D99" s="8">
         <v>1</v>
@@ -12255,10 +12255,10 @@
         <v>10098</v>
       </c>
       <c r="B100">
-        <v>1652878500</v>
+        <v>1618835400</v>
       </c>
       <c r="C100" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D100" s="8">
         <v>1</v>
@@ -12281,10 +12281,10 @@
         <v>10099</v>
       </c>
       <c r="B101">
-        <v>1653483300</v>
+        <v>1619008200</v>
       </c>
       <c r="C101" s="8">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="D101" s="8">
         <v>1</v>

--- a/config_Release/fish_match_server.xlsx
+++ b/config_Release/fish_match_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="793" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="746"/>
   </bookViews>
   <sheets>
     <sheet name="match_info" sheetId="2" r:id="rId1"/>
@@ -111,7 +111,8 @@
           <t>按周循环
 周几，开始报名时间，结束报名时间…
 （3个数据一组）
-[0 - 6 = 星期天 - 星期六]</t>
+[0 - 6 = 星期天 - 星期六]
+强制开启情况，只会使用第一个数据，并且不关心周几</t>
         </r>
       </text>
     </comment>
@@ -131,12 +132,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>日期字符串数组，只有这些日期的比赛将会创建
+"2018-10-15",和忽略数据不可共存,日期从小到大排列(会影响上期排名计算)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="120">
   <si>
     <t>id|行号</t>
   </si>
@@ -744,19 +761,20 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>event_config</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>1,73800,75600,3,73800,75600,5,73800,75600,</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ignore_data|忽略的数据</t>
+    <t>indicate_data|强制开启的数据</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>event_config</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2018-6-25",</t>
+    <t>ignore_data|忽略的数据
+"2018-6-25",</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1002,7 +1020,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1012,12 +1030,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1081,8 +1093,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="差" xfId="6" builtinId="27"/>
@@ -1365,30 +1379,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="55.375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="40.875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="13.625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="4" customWidth="1"/>
-    <col min="11" max="13" width="20.375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="18.625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="28.875" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="11" style="4"/>
+    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="55.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="1" customWidth="1"/>
+    <col min="11" max="13" width="20.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="28.875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>114</v>
       </c>
@@ -1418,7 +1432,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1445,1103 +1459,502 @@
       <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="3"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="3"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="3"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="3"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="3"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="3"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="3"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="3"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91"/>
-      <c r="B91" s="28"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96"/>
-      <c r="B96" s="28"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2560,11 +1973,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="11" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
@@ -2581,1073 +1994,1073 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+    <row r="2" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="19">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="19">
         <v>0</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-    </row>
-    <row r="3" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="19">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="19">
         <v>300</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-    </row>
-    <row r="4" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+    </row>
+    <row r="4" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="19">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="19">
         <v>600</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-    </row>
-    <row r="5" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+    </row>
+    <row r="5" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="19">
         <v>900</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-    </row>
-    <row r="6" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="20">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="20">
         <v>0</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-    </row>
-    <row r="7" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="20">
         <v>2</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <v>300</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-    </row>
-    <row r="8" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+    </row>
+    <row r="8" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="20">
         <v>2</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="20">
         <v>600</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-    </row>
-    <row r="9" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+    </row>
+    <row r="9" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="20">
         <v>2</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="20">
         <v>900</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-    </row>
-    <row r="10" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+    </row>
+    <row r="10" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="21">
         <v>3</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="21">
         <v>300</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-    </row>
-    <row r="11" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+    </row>
+    <row r="11" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="21">
         <v>3</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="21">
         <v>600</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-    </row>
-    <row r="12" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+    </row>
+    <row r="12" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="21">
         <v>3</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="21">
         <v>900</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-    </row>
-    <row r="13" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+    </row>
+    <row r="13" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>4</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>600</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-    </row>
-    <row r="14" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+    </row>
+    <row r="14" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>4</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>900</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-    </row>
-    <row r="15" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-    </row>
-    <row r="16" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-    </row>
-    <row r="17" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-    </row>
-    <row r="18" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-    </row>
-    <row r="19" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-    </row>
-    <row r="20" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-    </row>
-    <row r="21" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-    </row>
-    <row r="22" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-    </row>
-    <row r="23" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-    </row>
-    <row r="24" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-    </row>
-    <row r="25" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-    </row>
-    <row r="26" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="12"/>
-    </row>
-    <row r="28" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="12"/>
-    </row>
-    <row r="29" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="12"/>
-    </row>
-    <row r="30" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="12"/>
-    </row>
-    <row r="31" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+    </row>
+    <row r="15" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+    </row>
+    <row r="16" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+    </row>
+    <row r="17" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+    </row>
+    <row r="18" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+    </row>
+    <row r="20" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+    </row>
+    <row r="21" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+    </row>
+    <row r="22" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+    </row>
+    <row r="23" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+    </row>
+    <row r="24" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+    </row>
+    <row r="25" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+    </row>
+    <row r="26" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="10"/>
+      <c r="B33" s="8"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="10"/>
+      <c r="B34" s="8"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="10"/>
+      <c r="B36" s="8"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="10"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="10"/>
+      <c r="B39" s="8"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="10"/>
+      <c r="B40" s="8"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="10"/>
+      <c r="B42" s="8"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B43" s="10"/>
+      <c r="B43" s="8"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="10"/>
+      <c r="B45" s="8"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="10"/>
+      <c r="B46" s="8"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="10"/>
+      <c r="C71" s="8"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="10"/>
+      <c r="C73" s="8"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="10"/>
+      <c r="C75" s="8"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="10"/>
+      <c r="C77" s="8"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="10"/>
+      <c r="C79" s="8"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="10"/>
+      <c r="C81" s="8"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-    </row>
-    <row r="101" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="8"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-    </row>
-    <row r="102" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="8"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-    </row>
-    <row r="103" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="8"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-    </row>
-    <row r="104" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="8"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+    </row>
+    <row r="101" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="6"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+    </row>
+    <row r="102" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="6"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+    </row>
+    <row r="103" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="6"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+    </row>
+    <row r="104" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="6"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B124" s="10"/>
-      <c r="C124" s="10"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B126" s="10"/>
-      <c r="C126" s="10"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B128" s="10"/>
-      <c r="C128" s="10"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B132" s="10"/>
-      <c r="C132" s="10"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B133" s="10"/>
-      <c r="C133" s="10"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B134" s="10"/>
-      <c r="C134" s="10"/>
-    </row>
-    <row r="135" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="8"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="12"/>
-    </row>
-    <row r="136" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="8"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="12"/>
-    </row>
-    <row r="137" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="8"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="12"/>
-    </row>
-    <row r="138" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="8"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-    </row>
-    <row r="139" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="8"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-    </row>
-    <row r="140" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="8"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
-    </row>
-    <row r="141" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="8"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="12"/>
-    </row>
-    <row r="142" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="8"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="12"/>
-    </row>
-    <row r="143" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="8"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="12"/>
-    </row>
-    <row r="144" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="8"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="12"/>
-    </row>
-    <row r="145" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="8"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+    </row>
+    <row r="135" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="6"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+    </row>
+    <row r="136" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="6"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+    </row>
+    <row r="137" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="6"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+    </row>
+    <row r="138" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="6"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+    </row>
+    <row r="139" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="6"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+    </row>
+    <row r="140" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="6"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+    </row>
+    <row r="141" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="6"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+    </row>
+    <row r="142" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="6"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+    </row>
+    <row r="143" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="6"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="10"/>
+    </row>
+    <row r="144" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="6"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+    </row>
+    <row r="145" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="6"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B146" s="10"/>
-      <c r="C146" s="10"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B147" s="10"/>
-      <c r="C147" s="10"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B148" s="10"/>
-      <c r="C148" s="10"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B149" s="10"/>
-      <c r="C149" s="10"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C150" s="10"/>
+      <c r="C150" s="8"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C151" s="10"/>
+      <c r="C151" s="8"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C152" s="10"/>
+      <c r="C152" s="8"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C153" s="10"/>
+      <c r="C153" s="8"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C154" s="10"/>
+      <c r="C154" s="8"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C155" s="10"/>
+      <c r="C155" s="8"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C156" s="10"/>
+      <c r="C156" s="8"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C157" s="10"/>
+      <c r="C157" s="8"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C158" s="10"/>
+      <c r="C158" s="8"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C159" s="10"/>
+      <c r="C159" s="8"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C160" s="10"/>
+      <c r="C160" s="8"/>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C161" s="10"/>
+      <c r="C161" s="8"/>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C162" s="10"/>
+      <c r="C162" s="8"/>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C163" s="10"/>
+      <c r="C163" s="8"/>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C164" s="10"/>
+      <c r="C164" s="8"/>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C165" s="10"/>
+      <c r="C165" s="8"/>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C166" s="10"/>
+      <c r="C166" s="8"/>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C167" s="10"/>
+      <c r="C167" s="8"/>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C168" s="10"/>
+      <c r="C168" s="8"/>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C169" s="10"/>
+      <c r="C169" s="8"/>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C170" s="10"/>
+      <c r="C170" s="8"/>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C171" s="10"/>
+      <c r="C171" s="8"/>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C172" s="10"/>
+      <c r="C172" s="8"/>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C173" s="10"/>
+      <c r="C173" s="8"/>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C174" s="10"/>
+      <c r="C174" s="8"/>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C175" s="10"/>
+      <c r="C175" s="8"/>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C176" s="10"/>
+      <c r="C176" s="8"/>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C177" s="10"/>
+      <c r="C177" s="8"/>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C178" s="10"/>
+      <c r="C178" s="8"/>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C179" s="10"/>
+      <c r="C179" s="8"/>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C180" s="10"/>
+      <c r="C180" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -3746,12 +3159,13 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3794,7 +3208,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3808,7 +3222,7 @@
         <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -3822,8 +3236,12 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3863,20 +3281,20 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="8" customWidth="1"/>
-    <col min="4" max="5" width="19.125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="21" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="8"/>
-    <col min="8" max="8" width="21" style="8" customWidth="1"/>
-    <col min="9" max="9" width="31.375" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="8"/>
+    <col min="1" max="1" width="23.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="19.125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="21" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9" style="6"/>
+    <col min="8" max="8" width="21" style="6" customWidth="1"/>
+    <col min="9" max="9" width="31.375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="55.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -3909,429 +3327,454 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>10000</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>100</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>1</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>100</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="C17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="C20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="C21" s="9"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="C22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="C23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="C24" s="9"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="C25" s="9"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="C26" s="9"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="C27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="C28" s="9"/>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="C29" s="9"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="C30" s="9"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="C31" s="9"/>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="C32" s="9"/>
+      <c r="I32" s="9"/>
     </row>
     <row r="33" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="C33" s="9"/>
+      <c r="I33" s="9"/>
     </row>
     <row r="34" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="C34" s="9"/>
+      <c r="I34" s="9"/>
     </row>
     <row r="35" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="C35" s="9"/>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="C36" s="9"/>
+      <c r="I36" s="9"/>
     </row>
     <row r="37" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="C37" s="9"/>
+      <c r="I37" s="9"/>
     </row>
     <row r="38" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="11"/>
-      <c r="I38" s="11"/>
+      <c r="C38" s="9"/>
+      <c r="I38" s="9"/>
     </row>
     <row r="39" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="11"/>
-      <c r="I39" s="11"/>
+      <c r="C39" s="9"/>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="C40" s="9"/>
+      <c r="I40" s="9"/>
     </row>
     <row r="41" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="C41" s="9"/>
+      <c r="I41" s="9"/>
     </row>
     <row r="42" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="C42" s="9"/>
+      <c r="I42" s="9"/>
     </row>
     <row r="43" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="C43" s="9"/>
+      <c r="I43" s="9"/>
     </row>
     <row r="44" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="11"/>
-      <c r="I44" s="11"/>
+      <c r="C44" s="9"/>
+      <c r="I44" s="9"/>
     </row>
     <row r="45" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="11"/>
-      <c r="I45" s="11"/>
+      <c r="C45" s="9"/>
+      <c r="I45" s="9"/>
     </row>
     <row r="46" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="11"/>
-      <c r="I46" s="11"/>
+      <c r="C46" s="9"/>
+      <c r="I46" s="9"/>
     </row>
     <row r="47" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="11"/>
-      <c r="I47" s="11"/>
+      <c r="C47" s="9"/>
+      <c r="I47" s="9"/>
     </row>
     <row r="48" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="11"/>
-      <c r="I48" s="11"/>
+      <c r="C48" s="9"/>
+      <c r="I48" s="9"/>
     </row>
     <row r="49" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="11"/>
-      <c r="I49" s="11"/>
+      <c r="C49" s="9"/>
+      <c r="I49" s="9"/>
     </row>
     <row r="50" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="11"/>
-      <c r="I50" s="11"/>
+      <c r="C50" s="9"/>
+      <c r="I50" s="9"/>
     </row>
     <row r="51" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="11"/>
-      <c r="I51" s="11"/>
+      <c r="C51" s="9"/>
+      <c r="I51" s="9"/>
     </row>
     <row r="52" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="11"/>
-      <c r="I52" s="11"/>
+      <c r="C52" s="9"/>
+      <c r="I52" s="9"/>
     </row>
     <row r="53" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="11"/>
-      <c r="I53" s="11"/>
+      <c r="C53" s="9"/>
+      <c r="I53" s="9"/>
     </row>
     <row r="54" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="11"/>
-      <c r="I54" s="11"/>
+      <c r="C54" s="9"/>
+      <c r="I54" s="9"/>
     </row>
     <row r="55" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="11"/>
-      <c r="I55" s="11"/>
+      <c r="C55" s="9"/>
+      <c r="I55" s="9"/>
     </row>
     <row r="56" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="11"/>
-      <c r="I56" s="11"/>
+      <c r="C56" s="9"/>
+      <c r="I56" s="9"/>
     </row>
     <row r="57" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="11"/>
-      <c r="I57" s="11"/>
+      <c r="C57" s="9"/>
+      <c r="I57" s="9"/>
     </row>
     <row r="58" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="11"/>
-      <c r="I58" s="11"/>
+      <c r="C58" s="9"/>
+      <c r="I58" s="9"/>
     </row>
     <row r="59" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="11"/>
-      <c r="I59" s="11"/>
+      <c r="C59" s="9"/>
+      <c r="I59" s="9"/>
     </row>
     <row r="60" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="11"/>
-      <c r="I60" s="11"/>
+      <c r="C60" s="9"/>
+      <c r="I60" s="9"/>
     </row>
     <row r="61" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="11"/>
-      <c r="I61" s="11"/>
+      <c r="C61" s="9"/>
+      <c r="I61" s="9"/>
     </row>
     <row r="62" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="11"/>
-      <c r="I62" s="11"/>
+      <c r="C62" s="9"/>
+      <c r="I62" s="9"/>
     </row>
     <row r="63" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="11"/>
-      <c r="I63" s="11"/>
+      <c r="C63" s="9"/>
+      <c r="I63" s="9"/>
     </row>
     <row r="64" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="11"/>
-      <c r="I64" s="11"/>
+      <c r="C64" s="9"/>
+      <c r="I64" s="9"/>
     </row>
     <row r="65" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="11"/>
-      <c r="I65" s="11"/>
+      <c r="C65" s="9"/>
+      <c r="I65" s="9"/>
     </row>
     <row r="66" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="11"/>
-      <c r="I66" s="11"/>
+      <c r="C66" s="9"/>
+      <c r="I66" s="9"/>
     </row>
     <row r="67" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="11"/>
-      <c r="I67" s="11"/>
+      <c r="C67" s="9"/>
+      <c r="I67" s="9"/>
     </row>
     <row r="68" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="11"/>
-      <c r="I68" s="11"/>
+      <c r="C68" s="9"/>
+      <c r="I68" s="9"/>
     </row>
     <row r="69" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="11"/>
-      <c r="I69" s="11"/>
+      <c r="C69" s="9"/>
+      <c r="I69" s="9"/>
     </row>
     <row r="70" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="11"/>
-      <c r="I70" s="11"/>
+      <c r="C70" s="9"/>
+      <c r="I70" s="9"/>
     </row>
     <row r="71" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="11"/>
-      <c r="I71" s="11"/>
+      <c r="C71" s="9"/>
+      <c r="I71" s="9"/>
     </row>
     <row r="72" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="11"/>
-      <c r="I72" s="11"/>
+      <c r="C72" s="9"/>
+      <c r="I72" s="9"/>
     </row>
     <row r="73" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="11"/>
-      <c r="I73" s="11"/>
+      <c r="C73" s="9"/>
+      <c r="I73" s="9"/>
     </row>
     <row r="74" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="11"/>
-      <c r="I74" s="11"/>
+      <c r="C74" s="9"/>
+      <c r="I74" s="9"/>
     </row>
     <row r="75" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="11"/>
-      <c r="I75" s="11"/>
+      <c r="C75" s="9"/>
+      <c r="I75" s="9"/>
     </row>
     <row r="76" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="11"/>
-      <c r="I76" s="11"/>
+      <c r="C76" s="9"/>
+      <c r="I76" s="9"/>
     </row>
     <row r="77" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="11"/>
-      <c r="I77" s="11"/>
+      <c r="C77" s="9"/>
+      <c r="I77" s="9"/>
     </row>
     <row r="78" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="11"/>
-      <c r="I78" s="11"/>
+      <c r="C78" s="9"/>
+      <c r="I78" s="9"/>
     </row>
     <row r="79" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="11"/>
-      <c r="I79" s="11"/>
+      <c r="C79" s="9"/>
+      <c r="I79" s="9"/>
     </row>
     <row r="80" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="11"/>
-      <c r="I80" s="11"/>
+      <c r="C80" s="9"/>
+      <c r="I80" s="9"/>
     </row>
     <row r="81" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="11"/>
-      <c r="I81" s="11"/>
+      <c r="C81" s="9"/>
+      <c r="I81" s="9"/>
     </row>
     <row r="82" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C82" s="11"/>
-      <c r="I82" s="11"/>
+      <c r="C82" s="9"/>
+      <c r="I82" s="9"/>
     </row>
     <row r="83" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="11"/>
-      <c r="I83" s="11"/>
+      <c r="C83" s="9"/>
+      <c r="I83" s="9"/>
     </row>
     <row r="84" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="11"/>
-      <c r="I84" s="11"/>
+      <c r="C84" s="9"/>
+      <c r="I84" s="9"/>
     </row>
     <row r="85" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C85" s="11"/>
-      <c r="I85" s="11"/>
+      <c r="C85" s="9"/>
+      <c r="I85" s="9"/>
     </row>
     <row r="86" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C86" s="11"/>
-      <c r="I86" s="11"/>
+      <c r="C86" s="9"/>
+      <c r="I86" s="9"/>
     </row>
     <row r="87" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C87" s="11"/>
-      <c r="I87" s="11"/>
+      <c r="C87" s="9"/>
+      <c r="I87" s="9"/>
     </row>
     <row r="88" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="11"/>
-      <c r="I88" s="11"/>
+      <c r="C88" s="9"/>
+      <c r="I88" s="9"/>
     </row>
     <row r="89" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C89" s="11"/>
-      <c r="I89" s="11"/>
+      <c r="C89" s="9"/>
+      <c r="I89" s="9"/>
     </row>
     <row r="90" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C90" s="11"/>
-      <c r="I90" s="11"/>
+      <c r="C90" s="9"/>
+      <c r="I90" s="9"/>
     </row>
     <row r="91" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C91" s="11"/>
-      <c r="I91" s="11"/>
+      <c r="C91" s="9"/>
+      <c r="I91" s="9"/>
     </row>
     <row r="92" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C92" s="11"/>
-      <c r="I92" s="11"/>
+      <c r="C92" s="9"/>
+      <c r="I92" s="9"/>
     </row>
     <row r="93" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C93" s="11"/>
-      <c r="I93" s="11"/>
+      <c r="C93" s="9"/>
+      <c r="I93" s="9"/>
     </row>
     <row r="94" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C94" s="11"/>
-      <c r="I94" s="11"/>
+      <c r="C94" s="9"/>
+      <c r="I94" s="9"/>
     </row>
     <row r="95" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C95" s="11"/>
-      <c r="I95" s="11"/>
+      <c r="C95" s="9"/>
+      <c r="I95" s="9"/>
     </row>
     <row r="96" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C96" s="11"/>
-      <c r="I96" s="11"/>
+      <c r="C96" s="9"/>
+      <c r="I96" s="9"/>
     </row>
     <row r="97" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C97" s="11"/>
-      <c r="I97" s="11"/>
+      <c r="C97" s="9"/>
+      <c r="I97" s="9"/>
     </row>
     <row r="98" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C98" s="11"/>
-      <c r="I98" s="11"/>
+      <c r="C98" s="9"/>
+      <c r="I98" s="9"/>
     </row>
     <row r="99" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C99" s="11"/>
-      <c r="I99" s="11"/>
+      <c r="C99" s="9"/>
+      <c r="I99" s="9"/>
     </row>
     <row r="100" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C100" s="11"/>
-      <c r="I100" s="11"/>
+      <c r="C100" s="9"/>
+      <c r="I100" s="9"/>
     </row>
     <row r="101" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C101" s="11"/>
-      <c r="I101" s="11"/>
+      <c r="C101" s="9"/>
+      <c r="I101" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4343,28 +3786,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="41.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="24.25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31" style="8" customWidth="1"/>
-    <col min="7" max="7" width="33.75" style="8" customWidth="1"/>
-    <col min="8" max="8" width="24.125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="37" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="11" style="8"/>
+    <col min="1" max="1" width="16.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="42.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="24.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="31" style="6" customWidth="1"/>
+    <col min="8" max="8" width="33.75" style="6" customWidth="1"/>
+    <col min="9" max="9" width="24.125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="37" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>114</v>
       </c>
@@ -4372,446 +3816,442 @@
         <v>115</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="F2" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="7">
+        <v>864000</v>
+      </c>
+      <c r="H2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="8">
-        <v>5000</v>
-      </c>
-      <c r="F2" s="9">
-        <v>864000</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8">
+      <c r="I2" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="25"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="25"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="23"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="23"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="25"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="27"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="27"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="27"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="27"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="27"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="27"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="25"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="25"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="25"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="25"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="25"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33"/>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34"/>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35"/>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37"/>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38"/>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40"/>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41"/>
-      <c r="F41" s="9"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42"/>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43"/>
-      <c r="F43" s="9"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44"/>
-      <c r="F44" s="9"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45"/>
-      <c r="F45" s="9"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46"/>
-      <c r="F46" s="9"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47"/>
-      <c r="F47" s="9"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48"/>
-      <c r="F48" s="9"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49"/>
-      <c r="F49" s="9"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50"/>
-      <c r="F50" s="9"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51"/>
-      <c r="F51" s="9"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="29"/>
-      <c r="F52" s="9"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B53" s="29"/>
-      <c r="F53" s="9"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="29"/>
-      <c r="F54" s="9"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B55" s="29"/>
-      <c r="F55" s="9"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B56" s="29"/>
-      <c r="F56" s="9"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B57" s="29"/>
-      <c r="F57" s="9"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B58" s="29"/>
-      <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="29"/>
-      <c r="F59" s="9"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B60" s="29"/>
-      <c r="F60" s="9"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B61" s="29"/>
-      <c r="F61" s="9"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B62" s="29"/>
-      <c r="F62" s="9"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B63" s="29"/>
-      <c r="F63" s="9"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B64" s="29"/>
-      <c r="F64" s="9"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" s="29"/>
-      <c r="F65" s="9"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B66" s="29"/>
-      <c r="F66" s="9"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B67" s="29"/>
-      <c r="F67" s="9"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B68" s="29"/>
-      <c r="F68" s="9"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B69" s="29"/>
-      <c r="F69" s="9"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B70" s="29"/>
-      <c r="F70" s="9"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="29"/>
-      <c r="F71" s="9"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B72" s="29"/>
-      <c r="F72" s="9"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B73" s="29"/>
-      <c r="F73" s="9"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B74" s="29"/>
-      <c r="F74" s="9"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B75" s="29"/>
-      <c r="F75" s="9"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B76" s="29"/>
-      <c r="F76" s="9"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B77" s="29"/>
-      <c r="F77" s="9"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B78" s="29"/>
-      <c r="F78" s="9"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B79" s="25"/>
-      <c r="F79" s="9"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B80" s="25"/>
-      <c r="F80" s="9"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B81" s="25"/>
-      <c r="F81" s="9"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" s="26"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="26"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B53" s="26"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54" s="26"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B55" s="26"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56" s="26"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57" s="26"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B58" s="26"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B59" s="26"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B60" s="26"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B61" s="26"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B62" s="26"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B63" s="26"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B64" s="26"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B65" s="26"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B66" s="26"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B67" s="26"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B68" s="26"/>
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B69" s="26"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B70" s="26"/>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B71" s="26"/>
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B72" s="26"/>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B73" s="26"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B74" s="26"/>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B75" s="26"/>
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B76" s="26"/>
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B77" s="26"/>
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B78" s="23"/>
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B79" s="23"/>
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B80" s="23"/>
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B81" s="23"/>
+      <c r="G81" s="7"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="25"/>
-      <c r="F82" s="9"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B83" s="27"/>
-      <c r="F83" s="9"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B84" s="27"/>
-      <c r="F84" s="9"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B85" s="27"/>
-      <c r="F85" s="9"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B86" s="27"/>
-      <c r="F86" s="9"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B87" s="27"/>
-      <c r="F87" s="9"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B88" s="27"/>
-      <c r="F88" s="9"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="25"/>
+      <c r="G83" s="7"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B84" s="25"/>
+      <c r="G84" s="7"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B85" s="25"/>
+      <c r="G85" s="7"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B86" s="25"/>
+      <c r="G86" s="7"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B87" s="25"/>
+      <c r="G87" s="7"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B88"/>
+      <c r="G88" s="7"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89"/>
-      <c r="F89" s="9"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G89" s="7"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90"/>
-      <c r="F90" s="9"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G90" s="7"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91"/>
-      <c r="F91" s="9"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G91" s="7"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92"/>
-      <c r="F92" s="9"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B93"/>
-      <c r="F93" s="9"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B94" s="25"/>
-      <c r="F94" s="9"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B95" s="25"/>
-      <c r="F95" s="9"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G92" s="7"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B93" s="23"/>
+      <c r="G93" s="7"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B94" s="23"/>
+      <c r="G94" s="7"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B95" s="23"/>
+      <c r="G95" s="7"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="25"/>
-      <c r="F96" s="9"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B97" s="27"/>
-      <c r="F97" s="9"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B98" s="27"/>
-      <c r="F98" s="9"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B99" s="27"/>
-      <c r="F99" s="9"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B100" s="27"/>
-      <c r="F100" s="9"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B101" s="27"/>
-      <c r="F101" s="9"/>
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B97" s="25"/>
+      <c r="G97" s="7"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B98" s="25"/>
+      <c r="G98" s="7"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B99" s="25"/>
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B100" s="25"/>
+      <c r="G100" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4827,21 +4267,21 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="8" customWidth="1"/>
-    <col min="4" max="5" width="31.875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="22.375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="19.375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="19" style="8" customWidth="1"/>
-    <col min="9" max="9" width="9" style="8"/>
-    <col min="10" max="10" width="12.625" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="11" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="6" customWidth="1"/>
+    <col min="4" max="5" width="31.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="19" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9" style="6"/>
+    <col min="10" max="10" width="12.625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
@@ -4876,934 +4316,934 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+    <row r="2" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>1200</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="6">
         <v>4</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-    </row>
-    <row r="3" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-    </row>
-    <row r="4" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-    </row>
-    <row r="5" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-    </row>
-    <row r="6" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-    </row>
-    <row r="7" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-    </row>
-    <row r="8" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-    </row>
-    <row r="9" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-    </row>
-    <row r="10" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-    </row>
-    <row r="11" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-    </row>
-    <row r="12" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-    </row>
-    <row r="13" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-    </row>
-    <row r="14" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-    </row>
-    <row r="15" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-    </row>
-    <row r="16" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-    </row>
-    <row r="17" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-    </row>
-    <row r="18" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-    </row>
-    <row r="19" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-    </row>
-    <row r="20" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-    </row>
-    <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-    </row>
-    <row r="22" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
-    </row>
-    <row r="24" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="12"/>
-    </row>
-    <row r="25" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="12"/>
-    </row>
-    <row r="26" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="12"/>
-    </row>
-    <row r="27" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+    </row>
+    <row r="3" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+    </row>
+    <row r="4" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+    </row>
+    <row r="6" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+    </row>
+    <row r="8" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+    </row>
+    <row r="9" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+    </row>
+    <row r="10" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+    </row>
+    <row r="11" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+    </row>
+    <row r="12" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+    </row>
+    <row r="13" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+    </row>
+    <row r="14" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+    </row>
+    <row r="15" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+    </row>
+    <row r="16" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+    </row>
+    <row r="17" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+    </row>
+    <row r="18" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+    </row>
+    <row r="19" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+    </row>
+    <row r="20" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+    </row>
+    <row r="21" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+    </row>
+    <row r="22" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
+      <c r="B29" s="8"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
+      <c r="B30" s="8"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="10"/>
+      <c r="B32" s="8"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="10"/>
+      <c r="B33" s="8"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="10"/>
+      <c r="B35" s="8"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="10"/>
+      <c r="B36" s="8"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="10"/>
+      <c r="B38" s="8"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="10"/>
+      <c r="B39" s="8"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="10"/>
+      <c r="B41" s="8"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="10"/>
+      <c r="B42" s="8"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="10"/>
+      <c r="C67" s="8"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="10"/>
+      <c r="C69" s="8"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="10"/>
+      <c r="C71" s="8"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="10"/>
+      <c r="C73" s="8"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="10"/>
+      <c r="C75" s="8"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="10"/>
+      <c r="C77" s="8"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-    </row>
-    <row r="97" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="8"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-    </row>
-    <row r="98" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="8"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-    </row>
-    <row r="99" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="8"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-    </row>
-    <row r="100" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="8"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+    </row>
+    <row r="97" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="6"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+    </row>
+    <row r="98" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="6"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+    </row>
+    <row r="99" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="6"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+    </row>
+    <row r="100" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="6"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B124" s="10"/>
-      <c r="C124" s="10"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B126" s="10"/>
-      <c r="C126" s="10"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B128" s="10"/>
-      <c r="C128" s="10"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
-    </row>
-    <row r="131" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="8"/>
-      <c r="B131" s="12"/>
-      <c r="C131" s="12"/>
-    </row>
-    <row r="132" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="8"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="12"/>
-    </row>
-    <row r="133" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="8"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="12"/>
-    </row>
-    <row r="134" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="8"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="12"/>
-    </row>
-    <row r="135" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="8"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="12"/>
-    </row>
-    <row r="136" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="8"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="12"/>
-    </row>
-    <row r="137" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="8"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="12"/>
-    </row>
-    <row r="138" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="8"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-    </row>
-    <row r="139" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="8"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-    </row>
-    <row r="140" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="8"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
-    </row>
-    <row r="141" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+    </row>
+    <row r="131" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="6"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+    </row>
+    <row r="132" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="6"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+    </row>
+    <row r="133" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="6"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="10"/>
+    </row>
+    <row r="134" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="6"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+    </row>
+    <row r="135" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="6"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+    </row>
+    <row r="136" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="6"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+    </row>
+    <row r="137" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="6"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+    </row>
+    <row r="138" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="6"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+    </row>
+    <row r="139" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="6"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+    </row>
+    <row r="140" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="6"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+    </row>
+    <row r="141" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="6"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B142" s="10"/>
-      <c r="C142" s="10"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B143" s="10"/>
-      <c r="C143" s="10"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B144" s="10"/>
-      <c r="C144" s="10"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B145" s="10"/>
-      <c r="C145" s="10"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C146" s="10"/>
+      <c r="C146" s="8"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C147" s="10"/>
+      <c r="C147" s="8"/>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C148" s="10"/>
+      <c r="C148" s="8"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C149" s="10"/>
+      <c r="C149" s="8"/>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C150" s="10"/>
+      <c r="C150" s="8"/>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C151" s="10"/>
+      <c r="C151" s="8"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C152" s="10"/>
+      <c r="C152" s="8"/>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C153" s="10"/>
+      <c r="C153" s="8"/>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C154" s="10"/>
+      <c r="C154" s="8"/>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C155" s="10"/>
+      <c r="C155" s="8"/>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C156" s="10"/>
+      <c r="C156" s="8"/>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C157" s="10"/>
+      <c r="C157" s="8"/>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C158" s="10"/>
+      <c r="C158" s="8"/>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C159" s="10"/>
+      <c r="C159" s="8"/>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C160" s="10"/>
+      <c r="C160" s="8"/>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C161" s="10"/>
+      <c r="C161" s="8"/>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C162" s="10"/>
+      <c r="C162" s="8"/>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C163" s="10"/>
+      <c r="C163" s="8"/>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C164" s="10"/>
+      <c r="C164" s="8"/>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C165" s="10"/>
+      <c r="C165" s="8"/>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C166" s="10"/>
+      <c r="C166" s="8"/>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C167" s="10"/>
+      <c r="C167" s="8"/>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C168" s="10"/>
+      <c r="C168" s="8"/>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C169" s="10"/>
+      <c r="C169" s="8"/>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C170" s="10"/>
+      <c r="C170" s="8"/>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C171" s="10"/>
+      <c r="C171" s="8"/>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C172" s="10"/>
+      <c r="C172" s="8"/>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C173" s="10"/>
+      <c r="C173" s="8"/>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C174" s="10"/>
+      <c r="C174" s="8"/>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C175" s="10"/>
+      <c r="C175" s="8"/>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C176" s="10"/>
+      <c r="C176" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5942,20 +5382,20 @@
   <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="8" customWidth="1"/>
-    <col min="6" max="7" width="9" style="8"/>
-    <col min="8" max="8" width="40" style="8" customWidth="1"/>
-    <col min="9" max="9" width="16.75" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="8.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="30.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="6" customWidth="1"/>
+    <col min="6" max="7" width="9" style="6"/>
+    <col min="8" max="8" width="40" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.75" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -5979,375 +5419,375 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>50000</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>20000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>2.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>1.2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <v>0.1</v>
       </c>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B209" s="15"/>
-      <c r="C209" s="16"/>
-      <c r="D209" s="15"/>
-      <c r="E209" s="15"/>
+      <c r="B209" s="13"/>
+      <c r="C209" s="14"/>
+      <c r="D209" s="13"/>
+      <c r="E209" s="13"/>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B210" s="15"/>
-      <c r="C210" s="16"/>
-      <c r="D210" s="15"/>
-      <c r="E210" s="15"/>
+      <c r="B210" s="13"/>
+      <c r="C210" s="14"/>
+      <c r="D210" s="13"/>
+      <c r="E210" s="13"/>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B211" s="15"/>
-      <c r="C211" s="16"/>
-      <c r="D211" s="15"/>
-      <c r="E211" s="15"/>
+      <c r="B211" s="13"/>
+      <c r="C211" s="14"/>
+      <c r="D211" s="13"/>
+      <c r="E211" s="13"/>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B212" s="15"/>
-      <c r="C212" s="16"/>
-      <c r="D212" s="15"/>
-      <c r="E212" s="15"/>
+      <c r="B212" s="13"/>
+      <c r="C212" s="14"/>
+      <c r="D212" s="13"/>
+      <c r="E212" s="13"/>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B213" s="15"/>
-      <c r="C213" s="16"/>
-      <c r="D213" s="15"/>
-      <c r="E213" s="15"/>
+      <c r="B213" s="13"/>
+      <c r="C213" s="14"/>
+      <c r="D213" s="13"/>
+      <c r="E213" s="13"/>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B214" s="15"/>
-      <c r="C214" s="16"/>
-      <c r="D214" s="15"/>
-      <c r="E214" s="15"/>
+      <c r="B214" s="13"/>
+      <c r="C214" s="14"/>
+      <c r="D214" s="13"/>
+      <c r="E214" s="13"/>
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B215" s="15"/>
-      <c r="C215" s="16"/>
-      <c r="D215" s="15"/>
-      <c r="E215" s="15"/>
+      <c r="B215" s="13"/>
+      <c r="C215" s="14"/>
+      <c r="D215" s="13"/>
+      <c r="E215" s="13"/>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B216" s="15"/>
-      <c r="C216" s="16"/>
-      <c r="D216" s="15"/>
-      <c r="E216" s="15"/>
+      <c r="B216" s="13"/>
+      <c r="C216" s="14"/>
+      <c r="D216" s="13"/>
+      <c r="E216" s="13"/>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B217" s="15"/>
-      <c r="C217" s="16"/>
-      <c r="D217" s="15"/>
-      <c r="E217" s="15"/>
+      <c r="B217" s="13"/>
+      <c r="C217" s="14"/>
+      <c r="D217" s="13"/>
+      <c r="E217" s="13"/>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B218" s="15"/>
-      <c r="C218" s="16"/>
-      <c r="D218" s="15"/>
-      <c r="E218" s="15"/>
+      <c r="B218" s="13"/>
+      <c r="C218" s="14"/>
+      <c r="D218" s="13"/>
+      <c r="E218" s="13"/>
     </row>
     <row r="219" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B219" s="15"/>
-      <c r="C219" s="16"/>
-      <c r="D219" s="15"/>
-      <c r="E219" s="15"/>
+      <c r="B219" s="13"/>
+      <c r="C219" s="14"/>
+      <c r="D219" s="13"/>
+      <c r="E219" s="13"/>
     </row>
     <row r="220" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B220" s="15"/>
-      <c r="C220" s="16"/>
-      <c r="D220" s="15"/>
-      <c r="E220" s="15"/>
+      <c r="B220" s="13"/>
+      <c r="C220" s="14"/>
+      <c r="D220" s="13"/>
+      <c r="E220" s="13"/>
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C221" s="11"/>
+      <c r="C221" s="9"/>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C222" s="11"/>
+      <c r="C222" s="9"/>
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C223" s="11"/>
+      <c r="C223" s="9"/>
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C224" s="11"/>
-      <c r="D224" s="17"/>
+      <c r="C224" s="9"/>
+      <c r="D224" s="15"/>
     </row>
     <row r="225" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C225" s="11"/>
-      <c r="D225" s="17"/>
+      <c r="C225" s="9"/>
+      <c r="D225" s="15"/>
     </row>
     <row r="226" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C226" s="11"/>
+      <c r="C226" s="9"/>
     </row>
     <row r="227" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C227" s="11"/>
+      <c r="C227" s="9"/>
     </row>
     <row r="228" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C228" s="11"/>
+      <c r="C228" s="9"/>
     </row>
     <row r="229" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C229" s="11"/>
-      <c r="D229" s="11"/>
+      <c r="C229" s="9"/>
+      <c r="D229" s="9"/>
     </row>
     <row r="230" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C230" s="11"/>
-      <c r="D230" s="11"/>
+      <c r="C230" s="9"/>
+      <c r="D230" s="9"/>
     </row>
     <row r="231" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C231" s="11"/>
-      <c r="D231" s="11"/>
+      <c r="C231" s="9"/>
+      <c r="D231" s="9"/>
     </row>
     <row r="232" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C232" s="11"/>
-      <c r="D232" s="11"/>
+      <c r="C232" s="9"/>
+      <c r="D232" s="9"/>
     </row>
     <row r="233" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C233" s="11"/>
-      <c r="D233" s="11"/>
+      <c r="C233" s="9"/>
+      <c r="D233" s="9"/>
     </row>
     <row r="234" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C234" s="11"/>
+      <c r="C234" s="9"/>
     </row>
     <row r="235" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C235" s="11"/>
+      <c r="C235" s="9"/>
     </row>
     <row r="236" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C236" s="11"/>
+      <c r="C236" s="9"/>
     </row>
     <row r="237" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C237" s="11"/>
-      <c r="D237" s="11"/>
+      <c r="C237" s="9"/>
+      <c r="D237" s="9"/>
     </row>
     <row r="238" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C238" s="11"/>
-      <c r="D238" s="11"/>
+      <c r="C238" s="9"/>
+      <c r="D238" s="9"/>
     </row>
     <row r="239" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C239" s="11"/>
-      <c r="D239" s="11"/>
+      <c r="C239" s="9"/>
+      <c r="D239" s="9"/>
     </row>
     <row r="240" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C240" s="11"/>
-      <c r="D240" s="11"/>
+      <c r="C240" s="9"/>
+      <c r="D240" s="9"/>
     </row>
     <row r="241" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C241" s="11"/>
-      <c r="D241" s="11"/>
+      <c r="C241" s="9"/>
+      <c r="D241" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -6401,7 +5841,7 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -6416,7 +5856,7 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -6445,7 +5885,7 @@
       <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -6509,12 +5949,12 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -6586,10 +6026,10 @@
       <c r="F2">
         <v>30</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="22" t="s">
         <v>90</v>
       </c>
     </row>
@@ -6612,10 +6052,10 @@
       <c r="F3">
         <v>20</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="22" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6638,10 +6078,10 @@
       <c r="F4">
         <v>10</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="22" t="s">
         <v>92</v>
       </c>
     </row>
